--- a/Assets/StreamingAssets/Excel/DialogueJournal/Conversation_SalesContract_3.xlsx
+++ b/Assets/StreamingAssets/Excel/DialogueJournal/Conversation_SalesContract_3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>中文角色名</t>
   </si>
@@ -46,28 +46,49 @@
     <t>李文俊</t>
   </si>
   <si>
+    <t>LiWenJun</t>
+  </si>
+  <si>
+    <t>改好了，您再看看，还有别的问题吗？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's fixed now, please take a look again. Are there any other issues? </t>
+  </si>
+  <si>
+    <t>约翰逊</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>没有了。</t>
+  </si>
+  <si>
+    <t>No, there aren't.</t>
+  </si>
+  <si>
+    <t>那请您在这儿签字吧！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Then please sign here! </t>
+  </si>
+  <si>
+    <t>好，祝我们合作愉快！</t>
+  </si>
+  <si>
+    <t>Okay, wish us a pleasant cooperation!</t>
+  </si>
+  <si>
+    <t>选项</t>
+  </si>
+  <si>
     <t>English</t>
   </si>
   <si>
-    <t>改好了，您再看看，还有别的问题吗？</t>
-  </si>
-  <si>
-    <t>约翰逊</t>
-  </si>
-  <si>
-    <t>没有了。</t>
-  </si>
-  <si>
-    <t>那请您在这儿签字吧！</t>
-  </si>
-  <si>
-    <t>好，祝我们合作愉快！</t>
-  </si>
-  <si>
-    <t>选项</t>
-  </si>
-  <si>
     <t>下一步</t>
+  </si>
+  <si>
+    <t>Continue</t>
   </si>
 </sst>
 </file>
@@ -749,6 +770,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1004,7 +1032,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
@@ -1034,21 +1062,21 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1059,38 +1087,38 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
